--- a/testCase/sqsrmyyadmin/secondLevelDepartment/insertDepartment.xlsx
+++ b/testCase/sqsrmyyadmin/secondLevelDepartment/insertDepartment.xlsx
@@ -32,6 +32,14 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>新增二级科室成功</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>睿博一级科室</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>categoryName</t>
   </si>
   <si>
@@ -39,59 +47,51 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>睿博一级科室</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增二级科室成功</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <t>departmentName</t>
+  </si>
+  <si>
+    <t>departmentCode</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>departmentPhone</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>departmentAddress</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>departmentFeature</t>
+  </si>
+  <si>
+    <t>departmentSummary</t>
+  </si>
+  <si>
+    <t>Attention</t>
   </si>
   <si>
     <t>睿博二级科室</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>departmentName</t>
-  </si>
-  <si>
-    <t>departmentCode</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>departmentPhone</t>
-  </si>
-  <si>
-    <t>departmentAddress</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>departmentFeature</t>
-  </si>
-  <si>
-    <t>departmentSummary</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attention</t>
+    <t>科室地址</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>科室特色</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>科室简介</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意事项</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>睿博二级科室</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>盛夏路560号</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>注意事项</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>科室特色</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>科室简介</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -686,12 +686,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1031,10 +1028,15 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.75" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.375" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="9" max="9" width="17.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
@@ -1047,69 +1049,69 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
-      </c>
-      <c r="L1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1">
-        <v>123456</v>
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>111111</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2">
-        <v>12345601</v>
+        <v>111112</v>
       </c>
       <c r="H2">
         <v>2713350</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
         <v>19</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
